--- a/MapReduceResults.xlsx
+++ b/MapReduceResults.xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mangalakhandekar/Documents/Mangala/GaTech/Big Data Analytcis/PL2Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mangalakhandekar/Documents/GitHub/Hadoop-MapReduce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EBDF4C-F320-FA4B-A0C2-D6D80C5A7DEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327ED237-7AB3-9544-8346-C94B736A5F5E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="27560" windowHeight="17040" xr2:uid="{EDDF25E5-99B7-C844-8425-643E0BF195ED}"/>
   </bookViews>
   <sheets>
     <sheet name="WordCountPerformance" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">WordCountPerformance!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">WordCountPerformance!$A$3:$A$17</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">WordCountPerformance!$B$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">WordCountPerformance!$B$3:$B$17</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">WordCountPerformance!$C$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">WordCountPerformance!$C$3:$C$17</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Dataset</t>
   </si>
@@ -69,6 +61,9 @@
   </si>
   <si>
     <t>DatasetNumber</t>
+  </si>
+  <si>
+    <t>NOTE:</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1101,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1432,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF83DE85-70F4-4A46-874C-8D042DDA4B83}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1604,34 +1599,39 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
     </row>
